--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,7 +88,13 @@
     <t>Fzd4</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.38723566666667</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N2">
-        <v>94.16170700000001</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O2">
-        <v>0.5539598599114094</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P2">
-        <v>0.5539598599114095</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q2">
-        <v>5.01882944551189</v>
+        <v>4.758422904860111</v>
       </c>
       <c r="R2">
-        <v>45.16946500960701</v>
+        <v>42.825806143741</v>
       </c>
       <c r="S2">
-        <v>0.01466759374880744</v>
+        <v>0.01310263920903337</v>
       </c>
       <c r="T2">
-        <v>0.01466759374880745</v>
+        <v>0.01310263920903337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +626,10 @@
         <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q3">
         <v>2.807090380050111</v>
@@ -632,10 +638,10 @@
         <v>25.263813420451</v>
       </c>
       <c r="S3">
-        <v>0.008203757819979297</v>
+        <v>0.00772951316272849</v>
       </c>
       <c r="T3">
-        <v>0.008203757819979299</v>
+        <v>0.007729513162728489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,39 +676,39 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.717279333333334</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N4">
-        <v>23.151838</v>
+        <v>0.426419</v>
       </c>
       <c r="O4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q4">
-        <v>1.233995537826445</v>
+        <v>0.02272818007988889</v>
       </c>
       <c r="R4">
-        <v>11.105959840438</v>
+        <v>0.204553620719</v>
       </c>
       <c r="S4">
-        <v>0.003606367865890564</v>
+        <v>6.258358061461081E-05</v>
       </c>
       <c r="T4">
-        <v>0.003606367865890565</v>
+        <v>6.25835806146108E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,25 +717,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.879152</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H5">
-        <v>17.637456</v>
+        <v>0.479701</v>
       </c>
       <c r="I5">
-        <v>0.9735222805653226</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J5">
-        <v>0.9735222805653228</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.38723566666667</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N5">
-        <v>94.16170700000001</v>
+        <v>37.286186</v>
       </c>
       <c r="O5">
-        <v>0.5539598599114094</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P5">
-        <v>0.5539598599114095</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q5">
-        <v>184.5303293441547</v>
+        <v>1.987357856709556</v>
       </c>
       <c r="R5">
-        <v>1660.772964097392</v>
+        <v>17.886220710386</v>
       </c>
       <c r="S5">
-        <v>0.539292266162602</v>
+        <v>0.005472324233541125</v>
       </c>
       <c r="T5">
-        <v>0.5392922661626021</v>
+        <v>0.005472324233541125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -773,25 +779,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.879152</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H6">
-        <v>17.637456</v>
+        <v>0.479701</v>
       </c>
       <c r="I6">
-        <v>0.9735222805653226</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J6">
-        <v>0.9735222805653228</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.55525033333333</v>
+        <v>0.251329</v>
       </c>
       <c r="N6">
-        <v>52.665751</v>
+        <v>0.753987</v>
       </c>
       <c r="O6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343558</v>
       </c>
       <c r="P6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343557</v>
       </c>
       <c r="Q6">
-        <v>103.2099851077173</v>
+        <v>0.04018759087633333</v>
       </c>
       <c r="R6">
-        <v>928.889865969456</v>
+        <v>0.361688317887</v>
       </c>
       <c r="S6">
-        <v>0.301632511886656</v>
+        <v>0.0001106592487597142</v>
       </c>
       <c r="T6">
-        <v>0.301632511886656</v>
+        <v>0.0001106592487597142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -862,28 +868,276 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.717279333333334</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N7">
-        <v>23.151838</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q7">
-        <v>45.37105822712534</v>
+        <v>174.9558049990773</v>
       </c>
       <c r="R7">
-        <v>408.339524044128</v>
+        <v>1574.602244991696</v>
       </c>
       <c r="S7">
-        <v>0.1325975025160646</v>
+        <v>0.4817526386920203</v>
       </c>
       <c r="T7">
-        <v>0.1325975025160647</v>
+        <v>0.4817526386920202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.879152</v>
+      </c>
+      <c r="H8">
+        <v>17.637456</v>
+      </c>
+      <c r="I8">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J8">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N8">
+        <v>52.665751</v>
+      </c>
+      <c r="O8">
+        <v>0.2919251856942525</v>
+      </c>
+      <c r="P8">
+        <v>0.2919251856942524</v>
+      </c>
+      <c r="Q8">
+        <v>103.2099851077173</v>
+      </c>
+      <c r="R8">
+        <v>928.889865969456</v>
+      </c>
+      <c r="S8">
+        <v>0.2841956725315239</v>
+      </c>
+      <c r="T8">
+        <v>0.2841956725315239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.879152</v>
+      </c>
+      <c r="H9">
+        <v>17.637456</v>
+      </c>
+      <c r="I9">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J9">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.426419</v>
+      </c>
+      <c r="O9">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P9">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q9">
+        <v>0.8356607055626667</v>
+      </c>
+      <c r="R9">
+        <v>7.520946350064</v>
+      </c>
+      <c r="S9">
+        <v>0.002301048255919106</v>
+      </c>
+      <c r="T9">
+        <v>0.002301048255919106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.879152</v>
+      </c>
+      <c r="H10">
+        <v>17.637456</v>
+      </c>
+      <c r="I10">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J10">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N10">
+        <v>37.286186</v>
+      </c>
+      <c r="O10">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P10">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q10">
+        <v>73.07038499809067</v>
+      </c>
+      <c r="R10">
+        <v>657.633464982816</v>
+      </c>
+      <c r="S10">
+        <v>0.2012042457422755</v>
+      </c>
+      <c r="T10">
+        <v>0.2012042457422755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.879152</v>
+      </c>
+      <c r="H11">
+        <v>17.637456</v>
+      </c>
+      <c r="I11">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J11">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.251329</v>
+      </c>
+      <c r="N11">
+        <v>0.753987</v>
+      </c>
+      <c r="O11">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P11">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q11">
+        <v>1.477601393008</v>
+      </c>
+      <c r="R11">
+        <v>13.298412537072</v>
+      </c>
+      <c r="S11">
+        <v>0.004068675343583844</v>
+      </c>
+      <c r="T11">
+        <v>0.004068675343583843</v>
       </c>
     </row>
   </sheetData>
